--- a/templates/pricing_catalogue.xlsx
+++ b/templates/pricing_catalogue.xlsx
@@ -448,216 +448,216 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Materiales de uso gral</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tuercas</t>
+          <t>Refuerzos</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Movimiento de material seco</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pernos</t>
+          <t>Bandas Fijas</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Exhibición y Almacen</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tornillos</t>
+          <t>Gondolas</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Movimiento de material seco</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sujetadores</t>
+          <t>Helicoidales</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Herramientas manuales</t>
+          <t>Ejes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Brocas</t>
+          <t>Válvulas - Piezas para Maquinaria Industrial</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Materiales de uso gral</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Remaches</t>
+          <t>Placas</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mesas de Trabajo</t>
+          <t>Mobiliario Urbano</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Linea de Ensamble y Maquinaria</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Puntas</t>
+          <t>Linea de Producción</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Elementos Arquitectónicos</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rondana</t>
+          <t>Puertas</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Materiales de uso gral</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tapón</t>
+          <t>Angulo</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Sistemas de Tuberías y Tuberías</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Carritos</t>
+          <t>Soportes - Sistemas de Tuberías y Tuberías</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Componentes Estructurales</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Anclas</t>
+          <t>Celosías - Componentes Estructurales</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Componentes Estructurales</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Conectores</t>
+          <t>Grating/ Treads</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Componentes para Automóviles</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mandriles</t>
+          <t>Pedestales para Cargadores</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Piezas para Equipos Pesados</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dado</t>
+          <t>Cilindro Hidráulico</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Exhibición y Almacen</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Camisas</t>
+          <t>Gancho de Exhibición</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Equipo de Trabajo y Ferretería</t>
+          <t>Componentes Estructurales</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Arandela</t>
+          <t>Andamios</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Anillo</t>
+          <t>Dado</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Skids</t>
+          <t>Remaches</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Birlo</t>
+          <t>Tuercas</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cuña</t>
+          <t>Pernos</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bisagra</t>
+          <t>Tornillos</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Esparrago</t>
+          <t>Sujetadores</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Separadores</t>
+          <t>Herramientas manuales</t>
         </is>
       </c>
     </row>
@@ -753,607 +753,607 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Abrazadoras</t>
+          <t>Brocas</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Exhibición y Almacen</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aretes</t>
+          <t>Mesas de Trabajo</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Exhibición y Almacen</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Gondolas</t>
+          <t>Puntas</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Exhibición y Almacen</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Repisas</t>
+          <t>Rondana</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Exhibición y Almacen</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Gancho de Exhibición</t>
+          <t>Tapón</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Exhibición y Almacen</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Racks</t>
+          <t>Carritos</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Exhibición y Almacen</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Canastillas</t>
+          <t>Anclas - Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Exhibición y Almacen</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Elementos POP</t>
+          <t>Parrillas</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Exhibición y Almacen</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mensulas</t>
+          <t>Conectores - Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Exhibición y Almacen</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Carros de Autoservicio</t>
+          <t>Mandriles</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Exhibición y Almacen</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mueble de Exhibición</t>
+          <t>Camisas</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Exhibición y Almacen</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Letreros</t>
+          <t>Arandela</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Exhibición y Almacen</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Gabinetes</t>
+          <t>Anillo</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Exhibición y Almacen</t>
+          <t>Elementos Arquitectónicos</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Muebles especiales</t>
+          <t>Balaustradas</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bienes de Consumo</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Esculturas </t>
+          <t>Skids</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bienes de Consumo</t>
+          <t>Materiales de uso gral</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Adornos</t>
+          <t>Base</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bienes de Consumo</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Señalización</t>
+          <t>Birlo</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bienes de Consumo</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Instalaciones de arte</t>
+          <t>Cuña</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bienes de Consumo</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ganchos</t>
+          <t>Bisagra</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bienes de Consumo</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Alambre</t>
+          <t>Esparrago</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bienes de Consumo</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Articulos para el Hogar</t>
+          <t>Separadores</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bienes de Consumo</t>
+          <t>Equipo de Trabajo y Ferretería</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Muebles</t>
+          <t>Abrazadoras</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bienes de Consumo</t>
+          <t>Exhibición y Almacen</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Aretes</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bienes de Consumo</t>
+          <t>Exhibición y Almacen</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juguetes </t>
+          <t>Repisas</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bienes de Consumo</t>
+          <t>Exhibición y Almacen</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Escaleras</t>
+          <t>Racks - Exhibición y Almacen</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bienes de Consumo</t>
+          <t>Exhibición y Almacen</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Mobiliario Urbano</t>
+          <t>Canastillas</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bienes de Consumo</t>
+          <t>Exhibición y Almacen</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Lavabos</t>
+          <t>Elementos POP</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Bienes de Consumo</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Charolas</t>
+          <t>Recubrimiento - Piezas para Maquinaria Industrial</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Bienes de Consumo</t>
+          <t>Exhibición y Almacen</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sillas</t>
+          <t>Mensulas</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Exhibición y Almacen</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Engranajes</t>
+          <t>Carros de Autoservicio</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Exhibición y Almacen</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ejes</t>
+          <t>Mueble de Exhibición</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Exhibición y Almacen</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Rodamientos</t>
+          <t>Letreros</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Exhibición y Almacen</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Válvulas</t>
+          <t>Gabinetes</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Exhibición y Almacen</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pistones</t>
+          <t>Muebles especiales</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Bujes</t>
+          <t>Esculturas</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Sistemas de Tuberías y Tuberías</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Flechas</t>
+          <t>Esprea</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Perno</t>
+          <t>Adornos</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Rodillo</t>
+          <t>Señalización</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Componentes Estructurales</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Balata</t>
+          <t>Handrail &amp; Ladder</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Boquilla</t>
+          <t>Instalaciones de arte</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tapa</t>
+          <t>Ganchos</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Recubrimiento</t>
+          <t>Alambre</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Materiales de uso gral</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cátodos</t>
+          <t>Perfiles</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Canaletas</t>
+          <t>Articulos para el Hogar</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Ruedas</t>
+          <t>Muebles</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Polea</t>
+          <t>General</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Soportes</t>
+          <t>Juguetes</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Guardas</t>
+          <t>Escaleras - Bienes de Consumo</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Separador</t>
+          <t>Lavabos</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Chumacera</t>
+          <t>Charolas</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Bienes de Consumo</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Parrillas</t>
+          <t>Sillas</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Especiales</t>
+          <t>Engranajes</t>
         </is>
       </c>
     </row>
@@ -1377,235 +1377,235 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mordazas</t>
+          <t>Rodamientos</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Piezas para Maquinaria Industrial</t>
+          <t>Piezas para Equipos Pesados</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Rodajas</t>
+          <t>Chimeneas</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Elementos Arquitectónicos</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Escaleras </t>
+          <t>Pistones</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Elementos Arquitectónicos</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Barandillas</t>
+          <t>Bujes</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Elementos Arquitectónicos</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Balaustradas </t>
+          <t>Flechas</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Elementos Arquitectónicos</t>
+          <t>Infraestructura</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Fachadas</t>
+          <t>Silos - Infraestructura</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Elementos Arquitectónicos</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Plafones</t>
+          <t>Perno</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Elementos Arquitectónicos</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ventanas</t>
+          <t>Rodillo</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Elementos Arquitectónicos</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Celosías</t>
+          <t>Balata</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Elementos Arquitectónicos</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Pergolas</t>
+          <t>Boquilla</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Elementos Arquitectónicos</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Puertas</t>
+          <t>Tapa</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Elementos Arquitectónicos</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Tapajuntas</t>
+          <t>Cátodos</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Herramental y Checking Fixtures</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Dado de Extrusión</t>
+          <t>Canaletas</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Herramental y Checking Fixtures</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Cheking Fixtures</t>
+          <t>Ruedas</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Herramental y Checking Fixtures</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Troquel</t>
+          <t>Polea</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Herramental y Checking Fixtures</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Herramental</t>
+          <t>Soportes - Piezas para Maquinaria Industrial</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Herramental y Checking Fixtures</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Moldes</t>
+          <t>Guardas - Piezas para Maquinaria Industrial</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Herramental y Checking Fixtures</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Dados</t>
+          <t>Separador</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Componentes para Automóviles</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Chasis</t>
+          <t>Chumacera</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Componentes para Automóviles</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sistemas de escape</t>
+          <t>Especiales</t>
         </is>
       </c>
     </row>
@@ -1617,619 +1617,619 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Piezas de suspensión</t>
+          <t>Chasis</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Componentes para Automóviles</t>
+          <t>Linea de Ensamble y Maquinaria</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Resortes</t>
+          <t>Elementos eléctricos</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Componentes para Automóviles</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Piezas gral</t>
+          <t>Mordazas</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Componentes para Automóviles</t>
+          <t>Piezas para Maquinaria Industrial</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Pedestales para Cargadores</t>
+          <t>Rodajas</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Componentes para Automóviles</t>
+          <t>Componentes Estructurales</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Asientos</t>
+          <t>Structural Framing</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Componentes para Automóviles</t>
+          <t>Elementos Arquitectónicos</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Escaleras - Elementos Arquitectónicos</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Separación de material</t>
+          <t>Elementos Arquitectónicos</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Tanques de flotación</t>
+          <t>Barandillas</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Separación de material</t>
+          <t>Elementos Arquitectónicos</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Filtros</t>
+          <t>Fachadas</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Separación de material</t>
+          <t>Materiales de uso gral</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Espesadores</t>
+          <t>Extrusiones</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Separación de material</t>
+          <t>Elementos Arquitectónicos</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ciclones</t>
+          <t>Plafones</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Separación de material</t>
+          <t>Herramental y Checking Fixtures</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Chutes</t>
+          <t>Cheking Fixtures</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Materiales de uso gral</t>
+          <t>Elementos Arquitectónicos</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Perfiles</t>
+          <t>Ventanas</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Materiales de uso gral</t>
+          <t>Elementos Arquitectónicos</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Placas</t>
+          <t>Celosías - Elementos Arquitectónicos</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Materiales de uso gral</t>
+          <t>Elementos Arquitectónicos</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Barras</t>
+          <t>Pergolas</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Materiales de uso gral</t>
+          <t>Elementos Arquitectónicos</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tubos </t>
+          <t>Tapajuntas</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Materiales de uso gral</t>
+          <t>Herramental y Checking Fixtures</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Refuerzos</t>
+          <t>Dado de Extrusión</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Materiales de uso gral</t>
+          <t>Herramental y Checking Fixtures</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Angulo</t>
+          <t>Troquel</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Materiales de uso gral</t>
+          <t>Herramental y Checking Fixtures</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Base</t>
+          <t>Herramental</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Materiales de uso gral</t>
+          <t>Herramental y Checking Fixtures</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Extrusiones</t>
+          <t>Moldes</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Equipo Electrico</t>
+          <t>Piezas para Equipos Pesados</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Gabinete</t>
+          <t>Accesorios</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Equipo Electrico</t>
+          <t>Herramental y Checking Fixtures</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Cajas</t>
+          <t>Dados</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Equipo Electrico</t>
+          <t>Proceso</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Paneles</t>
+          <t>Recubrimiento - Proceso</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Equipo Electrico</t>
+          <t>Componentes para Automóviles</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Racks</t>
+          <t>Sistemas de escape</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Equipo Electrico</t>
+          <t>Componentes para Automóviles</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Sistemas de Carcasas</t>
+          <t>Piezas de suspensión</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Proceso</t>
+          <t>Componentes para Automóviles</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Recubrimiento</t>
+          <t>Resortes</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Proceso</t>
+          <t>Componentes para Automóviles</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PIntura</t>
+          <t>Piezas gral</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Proceso</t>
+          <t>Componentes para Automóviles</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ensamble</t>
+          <t>Asientos</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Proceso</t>
+          <t>Componentes para Automóviles</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Corte</t>
+          <t>Otros</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Proceso</t>
+          <t>Separación de material</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Instalación</t>
+          <t>Tanques de flotación</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Proceso</t>
+          <t>Movimiento de material seco</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Levantamiento</t>
+          <t>Cangilones</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Movimiento de material seco</t>
+          <t>Separación de material</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Cangilones</t>
+          <t>Filtros</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Movimiento de material seco</t>
+          <t>Separación de material</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Helicoidales</t>
+          <t>Espesadores</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Movimiento de material seco</t>
+          <t>Componentes Estructurales</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Bandas Fijas</t>
+          <t>Modules and Panels</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Movimiento de material seco</t>
+          <t>Separación de material</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Apiladores</t>
+          <t>Ciclones</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Movimiento de material seco</t>
+          <t>Separación de material</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Elevadores</t>
+          <t>Chutes</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Infraestructura</t>
+          <t>Materiales de uso gral</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Almacenes</t>
+          <t>Barras</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Infraestructura</t>
+          <t>Materiales de uso gral</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Nave Industrial</t>
+          <t>Tubos</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Infraestructura</t>
+          <t>Equipo Electrico</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Silos</t>
+          <t>Gabinete</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Infraestructura</t>
+          <t>Equipo Electrico</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Estudios</t>
+          <t>Cajas</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Componentes Estructurales</t>
+          <t>Equipo Electrico</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Vigas</t>
+          <t>Paneles</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Componentes Estructurales</t>
+          <t>Equipo Electrico</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Columnas</t>
+          <t>Racks - Equipo Electrico</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Componentes Estructurales</t>
+          <t>Equipo Electrico</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Trusses</t>
+          <t>Sistemas de Carcasas</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Componentes Estructurales</t>
+          <t>Proceso</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Soportes</t>
+          <t>PIntura</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Componentes Estructurales</t>
+          <t>Proceso</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Placas de conexión</t>
+          <t>Ensamble</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Componentes Estructurales</t>
+          <t>Proceso</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Celosías</t>
+          <t>Corte</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Componentes Estructurales</t>
+          <t>Proceso</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Travesaños</t>
+          <t>Instalación</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Componentes Estructurales</t>
+          <t>Proceso</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Andamios</t>
+          <t>Levantamiento</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Componentes Estructurales</t>
+          <t>Movimiento de material seco</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Plataformas</t>
+          <t>Apiladores</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Componentes Estructurales</t>
+          <t>Movimiento de material seco</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Estructura de alambre</t>
+          <t>Elevadores</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Componentes Estructurales</t>
+          <t>Infraestructura</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Omegas</t>
+          <t>Almacenes</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Componentes Estructurales</t>
+          <t>Infraestructura</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Structural Framing</t>
+          <t>Nave Industrial</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Componentes Estructurales</t>
+          <t>Infraestructura</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Bents</t>
+          <t>Estudios</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Modules and Panels</t>
+          <t>Vigas</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Heavy Weldments</t>
+          <t>Columnas</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ordinary Weldments</t>
+          <t>Trusses</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Stainless Steel Fabrications</t>
+          <t>Soportes - Componentes Estructurales</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Guardas</t>
+          <t>Placas de conexión</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Handrail &amp; Ladder</t>
+          <t>Travesaños</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>1/2" Thick TIVAR88 Liners (UHMW)</t>
+          <t>Plataformas</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Checkered Plate Flooring</t>
+          <t>Estructura de alambre</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Grating/ Treads</t>
+          <t>Omegas</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Sidding and Roofing</t>
+          <t>Bents</t>
         </is>
       </c>
     </row>
@@ -2361,91 +2361,91 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ducto</t>
+          <t>Heavy Weldments</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Sistemas de Tuberías y Tuberías</t>
+          <t>Componentes Estructurales</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tuberías</t>
+          <t>Ordinary Weldments</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sistemas de Tuberías y Tuberías</t>
+          <t>Componentes Estructurales</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Conexiones </t>
+          <t>Stainless Steel Fabrications</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Sistemas de Tuberías y Tuberías</t>
+          <t>Componentes Estructurales</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Bridas</t>
+          <t>Guardas - Componentes Estructurales</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Sistemas de Tuberías y Tuberías</t>
+          <t>Componentes Estructurales</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Conectores</t>
+          <t>1/2" Thick TIVAR88 Liners (UHMW)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Sistemas de Tuberías y Tuberías</t>
+          <t>Componentes Estructurales</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Válvulas</t>
+          <t>Checkered Plate Flooring</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Sistemas de Tuberías y Tuberías</t>
+          <t>Componentes Estructurales</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Esprea</t>
+          <t>Sidding and Roofing</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Sistemas de Tuberías y Tuberías</t>
+          <t>Componentes Estructurales</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cople</t>
+          <t>Ducto</t>
         </is>
       </c>
     </row>
@@ -2457,67 +2457,67 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Soportes</t>
+          <t>Tuberías</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Linea de Ensamble y Maquinaria</t>
+          <t>Sistemas de Tuberías y Tuberías</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Linea de Producción</t>
+          <t>Conexiones</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Linea de Ensamble y Maquinaria</t>
+          <t>Sistemas de Tuberías y Tuberías</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Maquinaria General</t>
+          <t>Bridas</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Linea de Ensamble y Maquinaria</t>
+          <t>Sistemas de Tuberías y Tuberías</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Elementos mecánicos dinámicos</t>
+          <t>Conectores - Sistemas de Tuberías y Tuberías</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Linea de Ensamble y Maquinaria</t>
+          <t>Sistemas de Tuberías y Tuberías</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Elementos mecánicos fijos</t>
+          <t>Válvulas - Sistemas de Tuberías y Tuberías</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Linea de Ensamble y Maquinaria</t>
+          <t>Sistemas de Tuberías y Tuberías</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Elementos eléctricos</t>
+          <t>Cople</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Elementos de automatización</t>
+          <t>Maquinaria General</t>
         </is>
       </c>
     </row>
@@ -2541,79 +2541,79 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Carril</t>
+          <t>Elementos mecánicos dinámicos</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Resguardo de material</t>
+          <t>Linea de Ensamble y Maquinaria</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tanques</t>
+          <t>Elementos mecánicos fijos</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Resguardo de material</t>
+          <t>Linea de Ensamble y Maquinaria</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Silos</t>
+          <t>Elementos de automatización</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Resguardo de material</t>
+          <t>Linea de Ensamble y Maquinaria</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tolva</t>
+          <t>Carril</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Piezas para Equipos Pesados</t>
+          <t>Resguardo de material</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Cucharones</t>
+          <t>Tanques</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Piezas para Equipos Pesados</t>
+          <t>Resguardo de material</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Cuchillas</t>
+          <t>Silos - Resguardo de material</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Piezas para Equipos Pesados</t>
+          <t>Resguardo de material</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Orugas</t>
+          <t>Tolva - Resguardo de material</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Cilindro Hidráulico</t>
+          <t>Cucharones</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Accesorios</t>
+          <t>Cuchillas</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Bandas Transportadoras</t>
+          <t>Orugas</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Brazo</t>
+          <t>Bandas Transportadoras</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tolva</t>
+          <t>Brazo</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Chute</t>
+          <t>Tolva - Piezas para Equipos Pesados</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Anclas</t>
+          <t>Chute</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tanque</t>
+          <t>Anclas - Piezas para Equipos Pesados</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Compuerta</t>
+          <t>Tanque</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Chimeneas</t>
+          <t>Compuerta</t>
         </is>
       </c>
     </row>
